--- a/Figures/Table_3.xlsx
+++ b/Figures/Table_3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Parameter</t>
   </si>
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -61,14 +61,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -88,45 +92,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.8523731126643039</v>
+        <v>-1.8523731280379572</v>
       </c>
       <c r="C2">
-        <v>0.078813506463124169</v>
+        <v>0.078813502746803377</v>
       </c>
       <c r="D2">
-        <v>0.36967600617550994</v>
+        <v>0.3696759855893807</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.4968156985614591</v>
+        <v>4.4968156252031903</v>
       </c>
       <c r="C3">
-        <v>0.36967600617550994</v>
+        <v>0.3696759855893807</v>
       </c>
       <c r="D3">
-        <v>1.9599392410455567</v>
+        <v>1.9599391298632582</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_3.xlsx
+++ b/Figures/Table_3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Parameter</t>
   </si>
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -63,16 +63,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -92,45 +96,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.8523731280379572</v>
+        <v>-1.8523731258359395</v>
       </c>
       <c r="C2">
-        <v>0.078813502746803377</v>
+        <v>0.078813505106004891</v>
       </c>
       <c r="D2">
-        <v>0.3696759855893807</v>
+        <v>0.36967599743456925</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.4968156252031903</v>
+        <v>4.4968156398719241</v>
       </c>
       <c r="C3">
-        <v>0.3696759855893807</v>
+        <v>0.36967599743456925</v>
       </c>
       <c r="D3">
-        <v>1.9599391298632582</v>
+        <v>1.9599391883321506</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_3.xlsx
+++ b/Figures/Table_3.xlsx
@@ -13,7 +13,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>log(\lambda)</t>
+  </si>
+  <si>
+    <t>log(\eta_{0}</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance Covariance_1</t>
+  </si>
+  <si>
+    <t>Variance Covariance_2</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>log(\lambda)</t>
+  </si>
+  <si>
+    <t>log(\eta_{0}</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance Covariance_1</t>
+  </si>
+  <si>
+    <t>Variance Covariance_2</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>log(\lambda)</t>
+  </si>
+  <si>
+    <t>log(\eta_{0}</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance Covariance_1</t>
+  </si>
+  <si>
+    <t>Variance Covariance_2</t>
+  </si>
   <si>
     <t>Parameter</t>
   </si>
@@ -51,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -65,11 +119,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -77,6 +134,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,44 +157,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-1.8523731258359395</v>
-      </c>
-      <c r="C2">
-        <v>0.078813505106004891</v>
-      </c>
-      <c r="D2">
-        <v>0.36967599743456925</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="0">
+        <v>-1.8523730947776056</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.078813489886388644</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.36967593451094838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4.4968156398719241</v>
-      </c>
-      <c r="C3">
-        <v>0.36967599743456925</v>
-      </c>
-      <c r="D3">
-        <v>1.9599391883321506</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="0">
+        <v>4.4968157223961134</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.36967593451094838</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1.9599390420536278</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_3.xlsx
+++ b/Figures/Table_3.xlsx
@@ -13,61 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>log(\lambda)</t>
-  </si>
-  <si>
-    <t>log(\eta_{0}</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Variance Covariance_1</t>
-  </si>
-  <si>
-    <t>Variance Covariance_2</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>log(\lambda)</t>
-  </si>
-  <si>
-    <t>log(\eta_{0}</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Variance Covariance_1</t>
-  </si>
-  <si>
-    <t>Variance Covariance_2</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>log(\lambda)</t>
-  </si>
-  <si>
-    <t>log(\eta_{0}</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Variance Covariance_1</t>
-  </si>
-  <si>
-    <t>Variance Covariance_2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Parameter</t>
   </si>
@@ -105,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,29 +60,13 @@
       <diagonal/>
     </border>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,45 +86,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
+      <c r="A1" s="0" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>22</v>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>23</v>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
+      <c r="A2" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>-1.8523730947776056</v>
+        <v>-1.9821371584398135</v>
       </c>
       <c r="C2" s="0">
-        <v>0.078813489886388644</v>
+        <v>0.11980611121251424</v>
       </c>
       <c r="D2" s="0">
-        <v>0.36967593451094838</v>
+        <v>0.12249686928038135</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
+      <c r="A3" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>4.4968157223961134</v>
+        <v>1.4526083248658814</v>
       </c>
       <c r="C3" s="0">
-        <v>0.36967593451094838</v>
+        <v>0.12249686928038135</v>
       </c>
       <c r="D3" s="0">
-        <v>1.9599390420536278</v>
+        <v>0.15972946267314536</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_3.xlsx
+++ b/Figures/Table_3.xlsx
@@ -18,7 +18,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -361,54 +637,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B2" s="0">
         <v>0.073999999999999996</v>
@@ -441,7 +717,7 @@
         <v>0.187</v>
       </c>
       <c r="L2" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.087999999999999995</v>
       </c>
       <c r="M2" s="0">
         <v>0.10199999999999999</v>
@@ -455,7 +731,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B3" s="0">
         <v>2.4700000000000002</v>
@@ -488,7 +764,7 @@
         <v>5.9509999999999996</v>
       </c>
       <c r="L3" s="0">
-        <v>1.129</v>
+        <v>1.579</v>
       </c>
       <c r="M3" s="0">
         <v>3.3079999999999998</v>
@@ -502,7 +778,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -549,7 +825,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -596,7 +872,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -663,36 +939,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B2" s="0">
         <v>0.081000000000000003</v>
@@ -721,7 +997,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="B3" s="0">
         <v>3.3170000000000002</v>
@@ -750,7 +1026,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="B4" s="0">
         <v>11.664</v>
@@ -779,7 +1055,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="B5" s="0">
         <v>4550</v>
@@ -808,7 +1084,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -863,54 +1139,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="B2" s="0">
         <v>0.082000000000000003</v>
@@ -957,7 +1233,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="B3" s="0">
         <v>2.8919999999999999</v>
@@ -1004,7 +1280,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -1051,7 +1327,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -1098,7 +1374,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1171,54 +1447,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B2" s="0">
         <v>0.031</v>
@@ -1251,7 +1527,7 @@
         <v>0.052999999999999999</v>
       </c>
       <c r="L2" s="0">
-        <v>0.010999999999999999</v>
+        <v>0.014</v>
       </c>
       <c r="M2" s="0">
         <v>0.034000000000000002</v>
@@ -1265,7 +1541,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="B3" s="0">
         <v>2.6099999999999999</v>
@@ -1298,7 +1574,7 @@
         <v>2.1850000000000001</v>
       </c>
       <c r="L3" s="0">
-        <v>2.4670000000000001</v>
+        <v>2.5449999999999999</v>
       </c>
       <c r="M3" s="0">
         <v>2.8399999999999999</v>
@@ -1312,7 +1588,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -1359,7 +1635,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="B5" s="0">
         <v>1000000</v>
@@ -1406,7 +1682,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1479,54 +1755,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="B2" s="0">
         <v>0.0080000000000000002</v>
@@ -1559,7 +1835,7 @@
         <v>0.062</v>
       </c>
       <c r="L2" s="0">
-        <v>0.002</v>
+        <v>0.0030000000000000001</v>
       </c>
       <c r="M2" s="0">
         <v>0.0050000000000000001</v>
@@ -1573,7 +1849,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="B3" s="0">
         <v>0.95599999999999996</v>
@@ -1606,7 +1882,7 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="L3" s="0">
-        <v>0.90700000000000003</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="M3" s="0">
         <v>0.94699999999999995</v>
@@ -1620,7 +1896,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="B4" s="0">
         <v>27</v>

--- a/Figures/Table_3.xlsx
+++ b/Figures/Table_3.xlsx
@@ -18,7 +18,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -637,54 +913,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="B2" s="0">
         <v>0.073999999999999996</v>
@@ -731,7 +1007,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="B3" s="0">
         <v>2.4700000000000002</v>
@@ -778,7 +1054,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -825,7 +1101,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -872,7 +1148,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -939,36 +1215,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="B2" s="0">
         <v>0.081000000000000003</v>
@@ -997,7 +1273,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="B3" s="0">
         <v>3.3170000000000002</v>
@@ -1026,7 +1302,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="B4" s="0">
         <v>11.664</v>
@@ -1055,7 +1331,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="B5" s="0">
         <v>4550</v>
@@ -1084,7 +1360,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1139,54 +1415,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="B2" s="0">
         <v>0.082000000000000003</v>
@@ -1225,7 +1501,7 @@
         <v>0.11</v>
       </c>
       <c r="N2" s="0">
-        <v>0.85799999999999998</v>
+        <v>1.151</v>
       </c>
       <c r="O2" s="0">
         <v>0.13800000000000001</v>
@@ -1233,7 +1509,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="B3" s="0">
         <v>2.8919999999999999</v>
@@ -1272,7 +1548,7 @@
         <v>3.7789999999999999</v>
       </c>
       <c r="N3" s="0">
-        <v>7.242</v>
+        <v>10</v>
       </c>
       <c r="O3" s="0">
         <v>4.6420000000000003</v>
@@ -1280,7 +1556,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -1327,7 +1603,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -1374,7 +1650,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1447,54 +1723,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>146</v>
+        <v>238</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>153</v>
+        <v>245</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>158</v>
+        <v>250</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>159</v>
+        <v>251</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>162</v>
+        <v>254</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="B2" s="0">
         <v>0.031</v>
@@ -1541,7 +1817,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="B3" s="0">
         <v>2.6099999999999999</v>
@@ -1588,7 +1864,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -1635,7 +1911,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="B5" s="0">
         <v>1000000</v>
@@ -1682,7 +1958,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1755,54 +2031,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="B2" s="0">
         <v>0.0080000000000000002</v>
@@ -1849,7 +2125,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="B3" s="0">
         <v>0.95599999999999996</v>
@@ -1896,7 +2172,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="B4" s="0">
         <v>27</v>

--- a/Figures/Table_3.xlsx
+++ b/Figures/Table_3.xlsx
@@ -18,7 +18,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -913,54 +1189,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>201</v>
+        <v>293</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="B2" s="0">
         <v>0.073999999999999996</v>
@@ -1007,7 +1283,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="B3" s="0">
         <v>2.4700000000000002</v>
@@ -1054,7 +1330,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -1101,7 +1377,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -1148,7 +1424,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1215,36 +1491,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>204</v>
+        <v>296</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>217</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="B2" s="0">
         <v>0.081000000000000003</v>
@@ -1273,7 +1549,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="B3" s="0">
         <v>3.3170000000000002</v>
@@ -1302,7 +1578,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="B4" s="0">
         <v>11.664</v>
@@ -1331,7 +1607,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="B5" s="0">
         <v>4550</v>
@@ -1360,7 +1636,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1415,54 +1691,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>218</v>
+        <v>310</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>226</v>
+        <v>318</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>227</v>
+        <v>319</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>229</v>
+        <v>321</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>230</v>
+        <v>322</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>234</v>
+        <v>326</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>235</v>
+        <v>327</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="B2" s="0">
         <v>0.082000000000000003</v>
@@ -1501,7 +1777,7 @@
         <v>0.11</v>
       </c>
       <c r="N2" s="0">
-        <v>1.151</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="O2" s="0">
         <v>0.13800000000000001</v>
@@ -1509,7 +1785,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="B3" s="0">
         <v>2.8919999999999999</v>
@@ -1548,7 +1824,7 @@
         <v>3.7789999999999999</v>
       </c>
       <c r="N3" s="0">
-        <v>10</v>
+        <v>7.242</v>
       </c>
       <c r="O3" s="0">
         <v>4.6420000000000003</v>
@@ -1556,7 +1832,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -1603,7 +1879,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -1650,7 +1926,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1723,54 +1999,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>244</v>
+        <v>336</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>247</v>
+        <v>339</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>248</v>
+        <v>340</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>249</v>
+        <v>341</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>250</v>
+        <v>342</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>251</v>
+        <v>343</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>252</v>
+        <v>344</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>253</v>
+        <v>345</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>255</v>
+        <v>347</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>256</v>
+        <v>348</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>257</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>239</v>
+        <v>331</v>
       </c>
       <c r="B2" s="0">
         <v>0.031</v>
@@ -1817,7 +2093,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>240</v>
+        <v>332</v>
       </c>
       <c r="B3" s="0">
         <v>2.6099999999999999</v>
@@ -1864,7 +2140,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -1911,7 +2187,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="B5" s="0">
         <v>1000000</v>
@@ -1958,7 +2234,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -2031,54 +2307,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>263</v>
+        <v>355</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>269</v>
+        <v>361</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>271</v>
+        <v>363</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>273</v>
+        <v>365</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>274</v>
+        <v>366</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>275</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>259</v>
+        <v>351</v>
       </c>
       <c r="B2" s="0">
         <v>0.0080000000000000002</v>
@@ -2125,7 +2401,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>260</v>
+        <v>352</v>
       </c>
       <c r="B3" s="0">
         <v>0.95599999999999996</v>
@@ -2172,7 +2448,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="B4" s="0">
         <v>27</v>

--- a/Figures/Table_3.xlsx
+++ b/Figures/Table_3.xlsx
@@ -18,7 +18,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -1189,54 +1465,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>282</v>
+        <v>374</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>283</v>
+        <v>375</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>285</v>
+        <v>377</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>286</v>
+        <v>378</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>287</v>
+        <v>379</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>288</v>
+        <v>380</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>289</v>
+        <v>381</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>291</v>
+        <v>383</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>295</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="B2" s="0">
         <v>0.073999999999999996</v>
@@ -1283,7 +1559,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>278</v>
+        <v>370</v>
       </c>
       <c r="B3" s="0">
         <v>2.4700000000000002</v>
@@ -1330,7 +1606,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -1377,7 +1653,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -1424,7 +1700,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>281</v>
+        <v>373</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1491,36 +1767,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>303</v>
+        <v>395</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>304</v>
+        <v>396</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>305</v>
+        <v>397</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>306</v>
+        <v>398</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>308</v>
+        <v>400</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>309</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>297</v>
+        <v>389</v>
       </c>
       <c r="B2" s="0">
         <v>0.081000000000000003</v>
@@ -1549,7 +1825,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="B3" s="0">
         <v>3.3170000000000002</v>
@@ -1578,7 +1854,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>299</v>
+        <v>391</v>
       </c>
       <c r="B4" s="0">
         <v>11.664</v>
@@ -1607,7 +1883,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>300</v>
+        <v>392</v>
       </c>
       <c r="B5" s="0">
         <v>4550</v>
@@ -1636,7 +1912,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>301</v>
+        <v>393</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1691,54 +1967,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>310</v>
+        <v>402</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>316</v>
+        <v>408</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>317</v>
+        <v>409</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>318</v>
+        <v>410</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>319</v>
+        <v>411</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>320</v>
+        <v>412</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>322</v>
+        <v>414</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>323</v>
+        <v>415</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>324</v>
+        <v>416</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>326</v>
+        <v>418</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>327</v>
+        <v>419</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>328</v>
+        <v>420</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>329</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>311</v>
+        <v>403</v>
       </c>
       <c r="B2" s="0">
         <v>0.082000000000000003</v>
@@ -1785,7 +2061,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>312</v>
+        <v>404</v>
       </c>
       <c r="B3" s="0">
         <v>2.8919999999999999</v>
@@ -1832,7 +2108,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>313</v>
+        <v>405</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -1879,7 +2155,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>314</v>
+        <v>406</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -1926,7 +2202,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>315</v>
+        <v>407</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1999,54 +2275,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>336</v>
+        <v>428</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>337</v>
+        <v>429</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>338</v>
+        <v>430</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>339</v>
+        <v>431</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>340</v>
+        <v>432</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>342</v>
+        <v>434</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>343</v>
+        <v>435</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>344</v>
+        <v>436</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>345</v>
+        <v>437</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>346</v>
+        <v>438</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>347</v>
+        <v>439</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>348</v>
+        <v>440</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>349</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="B2" s="0">
         <v>0.031</v>
@@ -2093,7 +2369,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="B3" s="0">
         <v>2.6099999999999999</v>
@@ -2140,7 +2416,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>333</v>
+        <v>425</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -2187,7 +2463,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>334</v>
+        <v>426</v>
       </c>
       <c r="B5" s="0">
         <v>1000000</v>
@@ -2234,7 +2510,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>335</v>
+        <v>427</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -2307,54 +2583,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>350</v>
+        <v>442</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>354</v>
+        <v>446</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>355</v>
+        <v>447</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>356</v>
+        <v>448</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>358</v>
+        <v>450</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>359</v>
+        <v>451</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>360</v>
+        <v>452</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>361</v>
+        <v>453</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>362</v>
+        <v>454</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>364</v>
+        <v>456</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>365</v>
+        <v>457</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>366</v>
+        <v>458</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>367</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>351</v>
+        <v>443</v>
       </c>
       <c r="B2" s="0">
         <v>0.0080000000000000002</v>
@@ -2401,7 +2677,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="B3" s="0">
         <v>0.95599999999999996</v>
@@ -2448,7 +2724,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>353</v>
+        <v>445</v>
       </c>
       <c r="B4" s="0">
         <v>27</v>

--- a/Figures/Table_3.xlsx
+++ b/Figures/Table_3.xlsx
@@ -18,7 +18,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="552">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -1465,54 +1741,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>368</v>
+        <v>460</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>374</v>
+        <v>466</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>375</v>
+        <v>467</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>376</v>
+        <v>468</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>377</v>
+        <v>469</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>378</v>
+        <v>470</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>379</v>
+        <v>471</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>380</v>
+        <v>472</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>381</v>
+        <v>473</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>382</v>
+        <v>474</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>383</v>
+        <v>475</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>385</v>
+        <v>477</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>387</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>369</v>
+        <v>461</v>
       </c>
       <c r="B2" s="0">
         <v>0.073999999999999996</v>
@@ -1559,7 +1835,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>370</v>
+        <v>462</v>
       </c>
       <c r="B3" s="0">
         <v>2.4700000000000002</v>
@@ -1606,7 +1882,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>371</v>
+        <v>463</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -1653,7 +1929,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>372</v>
+        <v>464</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -1700,7 +1976,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>373</v>
+        <v>465</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1767,36 +2043,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>388</v>
+        <v>480</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>395</v>
+        <v>487</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>396</v>
+        <v>488</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>397</v>
+        <v>489</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>398</v>
+        <v>490</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>399</v>
+        <v>491</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>401</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
       <c r="B2" s="0">
         <v>0.081000000000000003</v>
@@ -1825,7 +2101,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>390</v>
+        <v>482</v>
       </c>
       <c r="B3" s="0">
         <v>3.3170000000000002</v>
@@ -1854,7 +2130,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>391</v>
+        <v>483</v>
       </c>
       <c r="B4" s="0">
         <v>11.664</v>
@@ -1883,7 +2159,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>392</v>
+        <v>484</v>
       </c>
       <c r="B5" s="0">
         <v>4550</v>
@@ -1912,7 +2188,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>393</v>
+        <v>485</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1967,54 +2243,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>402</v>
+        <v>494</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>408</v>
+        <v>500</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>409</v>
+        <v>501</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>411</v>
+        <v>503</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>412</v>
+        <v>504</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>413</v>
+        <v>505</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>414</v>
+        <v>506</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>415</v>
+        <v>507</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>416</v>
+        <v>508</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>417</v>
+        <v>509</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>418</v>
+        <v>510</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>420</v>
+        <v>512</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>421</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>403</v>
+        <v>495</v>
       </c>
       <c r="B2" s="0">
         <v>0.082000000000000003</v>
@@ -2061,7 +2337,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>404</v>
+        <v>496</v>
       </c>
       <c r="B3" s="0">
         <v>2.8919999999999999</v>
@@ -2108,7 +2384,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>405</v>
+        <v>497</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -2155,7 +2431,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>406</v>
+        <v>498</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -2202,7 +2478,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>407</v>
+        <v>499</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -2275,54 +2551,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>422</v>
+        <v>514</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>428</v>
+        <v>520</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>429</v>
+        <v>521</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>430</v>
+        <v>522</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>431</v>
+        <v>523</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>432</v>
+        <v>524</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>433</v>
+        <v>525</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>434</v>
+        <v>526</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>438</v>
+        <v>530</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>440</v>
+        <v>532</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>441</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>423</v>
+        <v>515</v>
       </c>
       <c r="B2" s="0">
         <v>0.031</v>
@@ -2369,7 +2645,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>424</v>
+        <v>516</v>
       </c>
       <c r="B3" s="0">
         <v>2.6099999999999999</v>
@@ -2416,7 +2692,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>425</v>
+        <v>517</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -2463,7 +2739,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>426</v>
+        <v>518</v>
       </c>
       <c r="B5" s="0">
         <v>1000000</v>
@@ -2510,7 +2786,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>427</v>
+        <v>519</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -2583,54 +2859,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>442</v>
+        <v>534</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>446</v>
+        <v>538</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>447</v>
+        <v>539</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>448</v>
+        <v>540</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>449</v>
+        <v>541</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>450</v>
+        <v>542</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>451</v>
+        <v>543</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>452</v>
+        <v>544</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>453</v>
+        <v>545</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>454</v>
+        <v>546</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>455</v>
+        <v>547</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>456</v>
+        <v>548</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>457</v>
+        <v>549</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>458</v>
+        <v>550</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>459</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>443</v>
+        <v>535</v>
       </c>
       <c r="B2" s="0">
         <v>0.0080000000000000002</v>
@@ -2677,7 +2953,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>444</v>
+        <v>536</v>
       </c>
       <c r="B3" s="0">
         <v>0.95599999999999996</v>
@@ -2724,7 +3000,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>445</v>
+        <v>537</v>
       </c>
       <c r="B4" s="0">
         <v>27</v>
